--- a/couch_stats.xlsx
+++ b/couch_stats.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="couch_stats" localSheetId="0">Sheet1!$A$1:$G$274</definedName>
+    <definedName name="couch_stats" localSheetId="1">Sheet4!$A$1:$D$545</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -39,16 +41,35 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="couch_stats.rtf1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Untitled:Users:jameskarasim:Documents:iOSDev:CouchGame:couch_stats.rtf" space="1" consecutive="1" delimiter="-">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="3">
   <si>
     <t>DURATION</t>
   </si>
   <si>
     <t>SPEED</t>
+  </si>
+  <si>
+    <t>0.005000}</t>
   </si>
 </sst>
 </file>
@@ -97,8 +118,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -107,11 +130,13 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3478,11 +3503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2139877352"/>
-        <c:axId val="2139875208"/>
+        <c:axId val="2100624008"/>
+        <c:axId val="2100626968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2139877352"/>
+        <c:axId val="2100624008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3491,12 +3516,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139875208"/>
+        <c:crossAx val="2100626968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2139875208"/>
+        <c:axId val="2100626968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3507,7 +3532,3379 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139877352"/>
+        <c:crossAx val="2100624008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$1:$A$544</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="544"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>221.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>222.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>231.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>232.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>234.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>236.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>237.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>243.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>246.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>247.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>249.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>251.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>252.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>253.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>254.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>259.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>261.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>262.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>266.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>269.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>271.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>272.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>273.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>274.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>275.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>276.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>277.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>281.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>283.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>284.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>286.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>287.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>289.0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>291.0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>292.0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>293.0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>294.0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>295.0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>296.0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>297.0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>298.0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>299.0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>301.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>302.0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>303.0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>306.0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>307.0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>308.0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>310.0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>311.0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>312.0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>313.0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>314.0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>315.0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>316.0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>317.0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>318.0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>319.0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>321.0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>322.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>323.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>324.0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>325.0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>327.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>328.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>329.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>331.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>332.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>333.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>334.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>335.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>336.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>337.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>338.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>339.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>341.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>343.0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>344.0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>345.0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>346.0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>347.0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>348.0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>349.0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>350.0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>351.0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>352.0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>353.0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>354.0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>355.0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>356.0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>357.0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>358.0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>359.0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>361.0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>362.0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>363.0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>364.0</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>366.0</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>367.0</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>368.0</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>369.0</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>370.0</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>371.0</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>372.0</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>373.0</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>374.0</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>376.0</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>377.0</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>378.0</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>379.0</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>380.0</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>381.0</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>382.0</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>383.0</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>384.0</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>385.0</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>386.0</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>387.0</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>388.0</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>389.0</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>391.0</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>392.0</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>393.0</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>394.0</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>395.0</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>396.0</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>397.0</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>398.0</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>399.0</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>401.0</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>402.0</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>403.0</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>404.0</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>405.0</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>406.0</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>407.0</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>408.0</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>409.0</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>410.0</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>411.0</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>412.0</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>413.0</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>415.0</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>416.0</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>417.0</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>418.0</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>419.0</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>420.0</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>421.0</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>422.0</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>423.0</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>424.0</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>426.0</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>427.0</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>428.0</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>429.0</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>430.0</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>431.0</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>432.0</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>433.0</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>434.0</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>435.0</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>436.0</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>437.0</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>438.0</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>439.0</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>441.0</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>442.0</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>443.0</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>444.0</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>445.0</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>446.0</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>447.0</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>448.0</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>449.0</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>450.0</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>451.0</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>452.0</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>453.0</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>454.0</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>455.0</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>456.0</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>457.0</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>458.0</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>459.0</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>461.0</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>462.0</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>463.0</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>464.0</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>465.0</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>466.0</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>467.0</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>468.0</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>469.0</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>471.0</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>472.0</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>473.0</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>474.0</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>475.0</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>476.0</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>477.0</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>478.0</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>479.0</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>481.0</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>482.0</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>483.0</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>484.0</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>485.0</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>486.0</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>487.0</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>488.0</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>489.0</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>491.0</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>492.0</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>493.0</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>494.0</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>495.0</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>496.0</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>497.0</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>498.0</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>499.0</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>501.0</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>502.0</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>503.0</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>504.0</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>505.0</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>506.0</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>507.0</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>508.0</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>509.0</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>511.0</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>513.0</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>514.0</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>515.0</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>516.0</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>517.0</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>518.0</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>519.0</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>520.0</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>521.0</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>522.0</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>523.0</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>524.0</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>526.0</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>527.0</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>528.0</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>529.0</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>531.0</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>532.0</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>533.0</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>534.0</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>535.0</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>536.0</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>537.0</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>538.0</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>539.0</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>540.0</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>541.0</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>542.0</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>543.0</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>544.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$B$544</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="544"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>0.005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2147085032"/>
+        <c:axId val="-2147088200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2147085032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2147088200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2147088200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2147085032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3564,8 +6961,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="couch_stats" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="couch_stats" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3892,7 +7328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -7753,4 +11189,4392 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B545"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308">
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349">
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350">
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351">
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352">
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353">
+        <v>353</v>
+      </c>
+      <c r="B353">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354">
+        <v>354</v>
+      </c>
+      <c r="B354">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355">
+        <v>355</v>
+      </c>
+      <c r="B355">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356">
+        <v>356</v>
+      </c>
+      <c r="B356">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357">
+        <v>357</v>
+      </c>
+      <c r="B357">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358">
+        <v>358</v>
+      </c>
+      <c r="B358">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359">
+        <v>359</v>
+      </c>
+      <c r="B359">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360">
+        <v>360</v>
+      </c>
+      <c r="B360">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361">
+        <v>361</v>
+      </c>
+      <c r="B361">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362">
+        <v>362</v>
+      </c>
+      <c r="B362">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363">
+        <v>363</v>
+      </c>
+      <c r="B363">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364">
+        <v>364</v>
+      </c>
+      <c r="B364">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365">
+        <v>365</v>
+      </c>
+      <c r="B365">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366">
+        <v>366</v>
+      </c>
+      <c r="B366">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367">
+        <v>367</v>
+      </c>
+      <c r="B367">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368">
+        <v>368</v>
+      </c>
+      <c r="B368">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369">
+        <v>369</v>
+      </c>
+      <c r="B369">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370">
+        <v>370</v>
+      </c>
+      <c r="B370">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371">
+        <v>371</v>
+      </c>
+      <c r="B371">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372">
+        <v>372</v>
+      </c>
+      <c r="B372">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373">
+        <v>373</v>
+      </c>
+      <c r="B373">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374">
+        <v>374</v>
+      </c>
+      <c r="B374">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375">
+        <v>375</v>
+      </c>
+      <c r="B375">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376">
+        <v>376</v>
+      </c>
+      <c r="B376">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377">
+        <v>377</v>
+      </c>
+      <c r="B377">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378">
+        <v>378</v>
+      </c>
+      <c r="B378">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379">
+        <v>379</v>
+      </c>
+      <c r="B379">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380">
+        <v>380</v>
+      </c>
+      <c r="B380">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381">
+        <v>381</v>
+      </c>
+      <c r="B381">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382">
+        <v>382</v>
+      </c>
+      <c r="B382">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383">
+        <v>383</v>
+      </c>
+      <c r="B383">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384">
+        <v>384</v>
+      </c>
+      <c r="B384">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385">
+        <v>385</v>
+      </c>
+      <c r="B385">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386">
+        <v>386</v>
+      </c>
+      <c r="B386">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387">
+        <v>387</v>
+      </c>
+      <c r="B387">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388">
+        <v>388</v>
+      </c>
+      <c r="B388">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389">
+        <v>389</v>
+      </c>
+      <c r="B389">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390">
+        <v>390</v>
+      </c>
+      <c r="B390">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391">
+        <v>391</v>
+      </c>
+      <c r="B391">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392">
+        <v>392</v>
+      </c>
+      <c r="B392">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393">
+        <v>393</v>
+      </c>
+      <c r="B393">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394">
+        <v>394</v>
+      </c>
+      <c r="B394">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395">
+        <v>395</v>
+      </c>
+      <c r="B395">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396">
+        <v>396</v>
+      </c>
+      <c r="B396">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397">
+        <v>397</v>
+      </c>
+      <c r="B397">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398">
+        <v>398</v>
+      </c>
+      <c r="B398">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399">
+        <v>399</v>
+      </c>
+      <c r="B399">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400">
+        <v>400</v>
+      </c>
+      <c r="B400">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401">
+        <v>401</v>
+      </c>
+      <c r="B401">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402">
+        <v>402</v>
+      </c>
+      <c r="B402">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403">
+        <v>403</v>
+      </c>
+      <c r="B403">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404">
+        <v>404</v>
+      </c>
+      <c r="B404">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405">
+        <v>405</v>
+      </c>
+      <c r="B405">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406">
+        <v>406</v>
+      </c>
+      <c r="B406">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407">
+        <v>407</v>
+      </c>
+      <c r="B407">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408">
+        <v>408</v>
+      </c>
+      <c r="B408">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409">
+        <v>409</v>
+      </c>
+      <c r="B409">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410">
+        <v>410</v>
+      </c>
+      <c r="B410">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411">
+        <v>411</v>
+      </c>
+      <c r="B411">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412">
+        <v>412</v>
+      </c>
+      <c r="B412">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413">
+        <v>413</v>
+      </c>
+      <c r="B413">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414">
+        <v>414</v>
+      </c>
+      <c r="B414">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415">
+        <v>415</v>
+      </c>
+      <c r="B415">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416">
+        <v>416</v>
+      </c>
+      <c r="B416">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417">
+        <v>417</v>
+      </c>
+      <c r="B417">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418">
+        <v>418</v>
+      </c>
+      <c r="B418">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419">
+        <v>419</v>
+      </c>
+      <c r="B419">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420">
+        <v>420</v>
+      </c>
+      <c r="B420">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421">
+        <v>421</v>
+      </c>
+      <c r="B421">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422">
+        <v>422</v>
+      </c>
+      <c r="B422">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423">
+        <v>423</v>
+      </c>
+      <c r="B423">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424">
+        <v>424</v>
+      </c>
+      <c r="B424">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425">
+        <v>425</v>
+      </c>
+      <c r="B425">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426">
+        <v>426</v>
+      </c>
+      <c r="B426">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427">
+        <v>427</v>
+      </c>
+      <c r="B427">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428">
+        <v>428</v>
+      </c>
+      <c r="B428">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429">
+        <v>429</v>
+      </c>
+      <c r="B429">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430">
+        <v>430</v>
+      </c>
+      <c r="B430">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431">
+        <v>431</v>
+      </c>
+      <c r="B431">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432">
+        <v>432</v>
+      </c>
+      <c r="B432">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433">
+        <v>433</v>
+      </c>
+      <c r="B433">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434">
+        <v>434</v>
+      </c>
+      <c r="B434">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435">
+        <v>435</v>
+      </c>
+      <c r="B435">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436">
+        <v>436</v>
+      </c>
+      <c r="B436">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437">
+        <v>437</v>
+      </c>
+      <c r="B437">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438">
+        <v>438</v>
+      </c>
+      <c r="B438">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439">
+        <v>439</v>
+      </c>
+      <c r="B439">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440">
+        <v>440</v>
+      </c>
+      <c r="B440">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441">
+        <v>441</v>
+      </c>
+      <c r="B441">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442">
+        <v>442</v>
+      </c>
+      <c r="B442">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443">
+        <v>443</v>
+      </c>
+      <c r="B443">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444">
+        <v>444</v>
+      </c>
+      <c r="B444">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445">
+        <v>445</v>
+      </c>
+      <c r="B445">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446">
+        <v>446</v>
+      </c>
+      <c r="B446">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447">
+        <v>447</v>
+      </c>
+      <c r="B447">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448">
+        <v>448</v>
+      </c>
+      <c r="B448">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449">
+        <v>449</v>
+      </c>
+      <c r="B449">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450">
+        <v>450</v>
+      </c>
+      <c r="B450">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451">
+        <v>451</v>
+      </c>
+      <c r="B451">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452">
+        <v>452</v>
+      </c>
+      <c r="B452">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453">
+        <v>453</v>
+      </c>
+      <c r="B453">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454">
+        <v>454</v>
+      </c>
+      <c r="B454">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455">
+        <v>455</v>
+      </c>
+      <c r="B455">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456">
+        <v>456</v>
+      </c>
+      <c r="B456">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457">
+        <v>457</v>
+      </c>
+      <c r="B457">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458">
+        <v>458</v>
+      </c>
+      <c r="B458">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459">
+        <v>459</v>
+      </c>
+      <c r="B459">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460">
+        <v>460</v>
+      </c>
+      <c r="B460">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461">
+        <v>461</v>
+      </c>
+      <c r="B461">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462">
+        <v>462</v>
+      </c>
+      <c r="B462">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463">
+        <v>463</v>
+      </c>
+      <c r="B463">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464">
+        <v>464</v>
+      </c>
+      <c r="B464">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465">
+        <v>465</v>
+      </c>
+      <c r="B465">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466">
+        <v>466</v>
+      </c>
+      <c r="B466">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467">
+        <v>467</v>
+      </c>
+      <c r="B467">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468">
+        <v>468</v>
+      </c>
+      <c r="B468">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469">
+        <v>469</v>
+      </c>
+      <c r="B469">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470">
+        <v>470</v>
+      </c>
+      <c r="B470">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471">
+        <v>471</v>
+      </c>
+      <c r="B471">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472">
+        <v>472</v>
+      </c>
+      <c r="B472">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473">
+        <v>473</v>
+      </c>
+      <c r="B473">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474">
+        <v>474</v>
+      </c>
+      <c r="B474">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475">
+        <v>475</v>
+      </c>
+      <c r="B475">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476">
+        <v>476</v>
+      </c>
+      <c r="B476">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477">
+        <v>477</v>
+      </c>
+      <c r="B477">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478">
+        <v>478</v>
+      </c>
+      <c r="B478">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479">
+        <v>479</v>
+      </c>
+      <c r="B479">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480">
+        <v>480</v>
+      </c>
+      <c r="B480">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481">
+        <v>481</v>
+      </c>
+      <c r="B481">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482">
+        <v>482</v>
+      </c>
+      <c r="B482">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483">
+        <v>483</v>
+      </c>
+      <c r="B483">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484">
+        <v>484</v>
+      </c>
+      <c r="B484">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485">
+        <v>485</v>
+      </c>
+      <c r="B485">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486">
+        <v>486</v>
+      </c>
+      <c r="B486">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487">
+        <v>487</v>
+      </c>
+      <c r="B487">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488">
+        <v>488</v>
+      </c>
+      <c r="B488">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489">
+        <v>489</v>
+      </c>
+      <c r="B489">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490">
+        <v>490</v>
+      </c>
+      <c r="B490">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491">
+        <v>491</v>
+      </c>
+      <c r="B491">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492">
+        <v>492</v>
+      </c>
+      <c r="B492">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493">
+        <v>493</v>
+      </c>
+      <c r="B493">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494">
+        <v>494</v>
+      </c>
+      <c r="B494">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495">
+        <v>495</v>
+      </c>
+      <c r="B495">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496">
+        <v>496</v>
+      </c>
+      <c r="B496">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497">
+        <v>497</v>
+      </c>
+      <c r="B497">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498">
+        <v>498</v>
+      </c>
+      <c r="B498">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499">
+        <v>499</v>
+      </c>
+      <c r="B499">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500">
+        <v>500</v>
+      </c>
+      <c r="B500">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501">
+        <v>501</v>
+      </c>
+      <c r="B501">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502">
+        <v>502</v>
+      </c>
+      <c r="B502">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503">
+        <v>503</v>
+      </c>
+      <c r="B503">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504">
+        <v>504</v>
+      </c>
+      <c r="B504">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505">
+        <v>505</v>
+      </c>
+      <c r="B505">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506">
+        <v>506</v>
+      </c>
+      <c r="B506">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507">
+        <v>507</v>
+      </c>
+      <c r="B507">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508">
+        <v>508</v>
+      </c>
+      <c r="B508">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509">
+        <v>509</v>
+      </c>
+      <c r="B509">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510">
+        <v>510</v>
+      </c>
+      <c r="B510">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511">
+        <v>511</v>
+      </c>
+      <c r="B511">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512">
+        <v>512</v>
+      </c>
+      <c r="B512">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513">
+        <v>513</v>
+      </c>
+      <c r="B513">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514">
+        <v>514</v>
+      </c>
+      <c r="B514">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515">
+        <v>515</v>
+      </c>
+      <c r="B515">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516">
+        <v>516</v>
+      </c>
+      <c r="B516">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517">
+        <v>517</v>
+      </c>
+      <c r="B517">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518">
+        <v>518</v>
+      </c>
+      <c r="B518">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519">
+        <v>519</v>
+      </c>
+      <c r="B519">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520">
+        <v>520</v>
+      </c>
+      <c r="B520">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521">
+        <v>521</v>
+      </c>
+      <c r="B521">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522">
+        <v>522</v>
+      </c>
+      <c r="B522">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523">
+        <v>523</v>
+      </c>
+      <c r="B523">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524">
+        <v>524</v>
+      </c>
+      <c r="B524">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525">
+        <v>525</v>
+      </c>
+      <c r="B525">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526">
+        <v>526</v>
+      </c>
+      <c r="B526">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527">
+        <v>527</v>
+      </c>
+      <c r="B527">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528">
+        <v>528</v>
+      </c>
+      <c r="B528">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529">
+        <v>529</v>
+      </c>
+      <c r="B529">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530">
+        <v>530</v>
+      </c>
+      <c r="B530">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531">
+        <v>531</v>
+      </c>
+      <c r="B531">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532">
+        <v>532</v>
+      </c>
+      <c r="B532">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533">
+        <v>533</v>
+      </c>
+      <c r="B533">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534">
+        <v>534</v>
+      </c>
+      <c r="B534">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535">
+        <v>535</v>
+      </c>
+      <c r="B535">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536">
+        <v>536</v>
+      </c>
+      <c r="B536">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537">
+        <v>537</v>
+      </c>
+      <c r="B537">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538">
+        <v>538</v>
+      </c>
+      <c r="B538">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539">
+        <v>539</v>
+      </c>
+      <c r="B539">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540">
+        <v>540</v>
+      </c>
+      <c r="B540">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541">
+        <v>541</v>
+      </c>
+      <c r="B541">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542">
+        <v>542</v>
+      </c>
+      <c r="B542">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543">
+        <v>543</v>
+      </c>
+      <c r="B543">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544">
+        <v>544</v>
+      </c>
+      <c r="B544">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545">
+        <v>545</v>
+      </c>
+      <c r="B545" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>